--- a/data/trans_orig/P34_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>376904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>348568</v>
+        <v>346694</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>407177</v>
+        <v>410350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3700065531455403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3421895163677394</v>
+        <v>0.3403493021774244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3997256470474997</v>
+        <v>0.4028402438311044</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>393</v>
@@ -765,19 +765,19 @@
         <v>403368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>370323</v>
+        <v>367433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>436379</v>
+        <v>434491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3094078207256472</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2840603435754986</v>
+        <v>0.2818434661043226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3347295619557747</v>
+        <v>0.3332808668069817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>782</v>
@@ -786,19 +786,19 @@
         <v>780272</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>737121</v>
+        <v>738445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>828386</v>
+        <v>826095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.335988306048315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.317407641384383</v>
+        <v>0.3179775791781851</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3567064856392124</v>
+        <v>0.3557198762406502</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>641737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>611464</v>
+        <v>608291</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>670073</v>
+        <v>671947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6299934468544597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6002743529525002</v>
+        <v>0.5971597561688956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6578104836322606</v>
+        <v>0.659650697822576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>887</v>
@@ -836,19 +836,19 @@
         <v>900309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>867298</v>
+        <v>869186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>933354</v>
+        <v>936244</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6905921792743528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6652704380442254</v>
+        <v>0.6667191331930182</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7159396564245013</v>
+        <v>0.7181565338956774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1522</v>
@@ -857,19 +857,19 @@
         <v>1542046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1493932</v>
+        <v>1496223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1585197</v>
+        <v>1583873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.664011693951685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6432935143607876</v>
+        <v>0.6442801237593496</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.682592358615617</v>
+        <v>0.6820224208218146</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>598896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>562941</v>
+        <v>560717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>639779</v>
+        <v>637392</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3570157336006475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3355820802308985</v>
+        <v>0.3342560012065254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3813865381330005</v>
+        <v>0.3799637219772238</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>419</v>
@@ -982,19 +982,19 @@
         <v>417543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>383131</v>
+        <v>379499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>450178</v>
+        <v>452928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2650814695570187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2432348426771865</v>
+        <v>0.2409290578125733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2857998368319495</v>
+        <v>0.2875460393331729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1017</v>
@@ -1003,19 +1003,19 @@
         <v>1016440</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>961437</v>
+        <v>958346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1069601</v>
+        <v>1065915</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3124951297656047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2955849535989728</v>
+        <v>0.2946346263007412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3288391249688924</v>
+        <v>0.327705690363753</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1078611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1037728</v>
+        <v>1040115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1114566</v>
+        <v>1116790</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6429842663993525</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6186134618669994</v>
+        <v>0.6200362780227763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6644179197691015</v>
+        <v>0.6657439987934746</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1123</v>
@@ -1053,19 +1053,19 @@
         <v>1157607</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1124972</v>
+        <v>1122222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1192019</v>
+        <v>1195651</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7349185304429813</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7142001631680502</v>
+        <v>0.7124539606668273</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7567651573228135</v>
+        <v>0.7590709421874269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2159</v>
@@ -1074,19 +1074,19 @@
         <v>2236218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2183057</v>
+        <v>2186743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2291221</v>
+        <v>2294312</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6875048702343953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6711608750311073</v>
+        <v>0.6722943096362469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.704415046401027</v>
+        <v>0.7053653736992587</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>281495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>257228</v>
+        <v>259835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305148</v>
+        <v>305446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5145952303648033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4702324585500716</v>
+        <v>0.4749984276253749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5578334266788721</v>
+        <v>0.5583788466401669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>217</v>
@@ -1199,19 +1199,19 @@
         <v>227231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204716</v>
+        <v>206321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249891</v>
+        <v>249006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4790266047328036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4315640151761516</v>
+        <v>0.4349461625409168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5267963842484434</v>
+        <v>0.5249307484894271</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>491</v>
@@ -1220,19 +1220,19 @@
         <v>508726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>475679</v>
+        <v>476501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>543201</v>
+        <v>540954</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4980761460721357</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4657208568330936</v>
+        <v>0.4665253258535713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5318296599824026</v>
+        <v>0.5296290335757672</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>265528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241875</v>
+        <v>241577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289795</v>
+        <v>287188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4854047696351967</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.442166573321128</v>
+        <v>0.4416211533598331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5297675414499284</v>
+        <v>0.5250015723746251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -1270,19 +1270,19 @@
         <v>247128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224468</v>
+        <v>225353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269643</v>
+        <v>268038</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5209733952671964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4732036157515565</v>
+        <v>0.475069251510573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5684359848238484</v>
+        <v>0.5650538374590832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>482</v>
@@ -1291,19 +1291,19 @@
         <v>512656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>478181</v>
+        <v>480428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545703</v>
+        <v>544881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5019238539278642</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4681703400175972</v>
+        <v>0.4703709664242328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5342791431669062</v>
+        <v>0.5334746741464287</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1257296</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1029</v>
@@ -1416,19 +1416,19 @@
         <v>1048141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2290</v>
@@ -1437,19 +1437,19 @@
         <v>2305437</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1985875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1930931</v>
+        <v>1924385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2045402</v>
+        <v>2037558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6123252015627795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5953835326584561</v>
+        <v>0.5933652468205334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6306796619010714</v>
+        <v>0.6282611662181478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2243</v>
@@ -1487,19 +1487,19 @@
         <v>2305045</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2252036</v>
+        <v>2253460</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2355765</v>
+        <v>2356237</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6874192220701727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6716107090208148</v>
+        <v>0.6720353911847045</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7025453441475398</v>
+        <v>0.7026859160174004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4163</v>
@@ -1508,19 +1508,19 @@
         <v>4290920</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4217537</v>
+        <v>4216345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4364263</v>
+        <v>4376844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6504984275963324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6393736220895365</v>
+        <v>0.6391928994564573</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6616170905775692</v>
+        <v>0.6635244535637345</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>335904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>305230</v>
+        <v>305801</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>366199</v>
+        <v>366659</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3465925707540994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3149418102848581</v>
+        <v>0.3155315695257654</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3778514705070836</v>
+        <v>0.3783260327117988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>439</v>
@@ -1872,19 +1872,19 @@
         <v>471332</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>431326</v>
+        <v>435545</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>506829</v>
+        <v>509038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3548241539703392</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3247071566203367</v>
+        <v>0.3278836297976448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3815470078188254</v>
+        <v>0.3832101567993904</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>746</v>
@@ -1893,19 +1893,19 @@
         <v>807236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>760713</v>
+        <v>761225</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>858275</v>
+        <v>855231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3513518209420636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.331102170128285</v>
+        <v>0.331325007162175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3735663175725222</v>
+        <v>0.3722415839208911</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>633258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>602963</v>
+        <v>602503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663932</v>
+        <v>663361</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6534074292459006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6221485294929164</v>
+        <v>0.6216739672882012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6850581897151421</v>
+        <v>0.6844684304742347</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -1943,19 +1943,19 @@
         <v>857021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>821524</v>
+        <v>819315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>897027</v>
+        <v>892808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6451758460296607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6184529921811746</v>
+        <v>0.6167898432006098</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6752928433796633</v>
+        <v>0.6721163702023552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1395</v>
@@ -1964,19 +1964,19 @@
         <v>1490280</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1439241</v>
+        <v>1442285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1536803</v>
+        <v>1536291</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6486481790579364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6264336824274779</v>
+        <v>0.6277584160791089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.668897829871715</v>
+        <v>0.6686749928378249</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>551545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>511100</v>
+        <v>515516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>599417</v>
+        <v>594017</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2828870487309624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.262142961199699</v>
+        <v>0.2644077455169052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3074402203075791</v>
+        <v>0.3046705859062278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>383</v>
@@ -2089,19 +2089,19 @@
         <v>407996</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>372805</v>
+        <v>370699</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442907</v>
+        <v>448238</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2334877793621467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2133486123748722</v>
+        <v>0.2121436192017427</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2534668275878325</v>
+        <v>0.256517531043903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>902</v>
@@ -2110,19 +2110,19 @@
         <v>959541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>902461</v>
+        <v>905738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1015604</v>
+        <v>1010685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2595389715656182</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2440997126857012</v>
+        <v>0.2449862298318205</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.274702898558751</v>
+        <v>0.2733724760542328</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1398156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1350284</v>
+        <v>1355684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1438601</v>
+        <v>1434185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7171129512690376</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6925597796924208</v>
+        <v>0.6953294140937725</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.737857038800301</v>
+        <v>0.7355922544830952</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1242</v>
@@ -2160,19 +2160,19 @@
         <v>1339401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1304490</v>
+        <v>1299159</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1374592</v>
+        <v>1376698</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7665122206378533</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7465331724121673</v>
+        <v>0.7434824689560969</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7866513876251277</v>
+        <v>0.7878563807982573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2565</v>
@@ -2181,19 +2181,19 @@
         <v>2737557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2681494</v>
+        <v>2686413</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2794637</v>
+        <v>2791360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7404610284343818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7252971014412485</v>
+        <v>0.7266275239457671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7559002873142986</v>
+        <v>0.7550137701681795</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>187537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164981</v>
+        <v>164877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210994</v>
+        <v>209265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.393014150962296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3457431432543066</v>
+        <v>0.3455262356022651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4421712177087859</v>
+        <v>0.438547291015772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -2306,19 +2306,19 @@
         <v>155072</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133778</v>
+        <v>135821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176777</v>
+        <v>175232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3425265163165653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2954921893495696</v>
+        <v>0.3000043597423163</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3904678381052613</v>
+        <v>0.3870543933963774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>311</v>
@@ -2327,19 +2327,19 @@
         <v>342610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>309386</v>
+        <v>312021</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>374026</v>
+        <v>375491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3684339702563005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3327064179635191</v>
+        <v>0.3355393604653062</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4022183595516791</v>
+        <v>0.4037936851865964</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>289640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266183</v>
+        <v>267912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312196</v>
+        <v>312300</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.606985849037704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.557828782291214</v>
+        <v>0.5614527089842274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6542568567456934</v>
+        <v>0.6544737643977347</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>269</v>
@@ -2377,19 +2377,19 @@
         <v>297659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275954</v>
+        <v>277499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>318953</v>
+        <v>316910</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6574734836834347</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6095321618947388</v>
+        <v>0.6129456066036227</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7045078106504304</v>
+        <v>0.6999956402576837</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>530</v>
@@ -2398,19 +2398,19 @@
         <v>587298</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>555882</v>
+        <v>554417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>620522</v>
+        <v>617887</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6315660297436996</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5977816404483207</v>
+        <v>0.5962063148134036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6672935820364808</v>
+        <v>0.6644606395346937</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1074987</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1016986</v>
+        <v>1019450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1131885</v>
+        <v>1132994</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3165412834419578</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2994621987950414</v>
+        <v>0.3001878486943845</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3332953525222606</v>
+        <v>0.3336218695273565</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>960</v>
@@ -2523,19 +2523,19 @@
         <v>1034400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>974268</v>
+        <v>982059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1084934</v>
+        <v>1094686</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2931573062893651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2761153911964797</v>
+        <v>0.2783235232719518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3074791738321643</v>
+        <v>0.3102427910254602</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1959</v>
@@ -2544,19 +2544,19 @@
         <v>2109387</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2031420</v>
+        <v>2040292</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2187698</v>
+        <v>2189680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3046256702418211</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2933660875814365</v>
+        <v>0.2946474023530102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3159348754037993</v>
+        <v>0.316221176682612</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2321054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2264156</v>
+        <v>2263047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2379055</v>
+        <v>2376591</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6834587165580422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6667046474777396</v>
+        <v>0.6663781304726436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7005378012049588</v>
+        <v>0.6998121513056155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2310</v>
@@ -2594,19 +2594,19 @@
         <v>2494081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2443547</v>
+        <v>2433795</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2554213</v>
+        <v>2546422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7068426937106349</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6925208261678357</v>
+        <v>0.6897572089745398</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7238846088035199</v>
+        <v>0.7216764767280481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4490</v>
@@ -2615,19 +2615,19 @@
         <v>4815135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4736824</v>
+        <v>4734842</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4893102</v>
+        <v>4884230</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6953743297581789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6840651245962006</v>
+        <v>0.6837788233173883</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7066339124185635</v>
+        <v>0.7053525976469905</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>339653</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>310372</v>
+        <v>315497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365934</v>
+        <v>367503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.452448222826403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4134432103413226</v>
+        <v>0.4202707123632127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4874568958531191</v>
+        <v>0.4895465170143357</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>354</v>
@@ -2979,19 +2979,19 @@
         <v>419717</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>390547</v>
+        <v>389146</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>450929</v>
+        <v>454837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4242807808585028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3947940825016106</v>
+        <v>0.3933772723643009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4558328165837218</v>
+        <v>0.4597825267044951</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>707</v>
@@ -3000,19 +3000,19 @@
         <v>759370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>720037</v>
+        <v>717068</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>807556</v>
+        <v>800994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4364336484100863</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4138281950960176</v>
+        <v>0.4121215508808398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4641275839850553</v>
+        <v>0.4603565582182127</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>411047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384766</v>
+        <v>383197</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>440328</v>
+        <v>435203</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.547551777173597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.512543104146881</v>
+        <v>0.5104534829856645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5865567896586774</v>
+        <v>0.5797292876367878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>533</v>
@@ -3050,19 +3050,19 @@
         <v>569526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>538314</v>
+        <v>534406</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598696</v>
+        <v>600097</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5757192191414972</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5441671834162782</v>
+        <v>0.5402174732955051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6052059174983894</v>
+        <v>0.6066227276356995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>938</v>
@@ -3071,19 +3071,19 @@
         <v>980573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>932387</v>
+        <v>938949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1019906</v>
+        <v>1022875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5635663515899137</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5358724160149446</v>
+        <v>0.5396434417817874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5861718049039824</v>
+        <v>0.5878784491191602</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>640375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>597632</v>
+        <v>597638</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>683028</v>
+        <v>685561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3107439417810158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.290002807770752</v>
+        <v>0.2900056676103804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3314415589277153</v>
+        <v>0.3326702808991652</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>465</v>
@@ -3196,19 +3196,19 @@
         <v>495479</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>456917</v>
+        <v>455283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>536044</v>
+        <v>534078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2499718332391148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2305170360608838</v>
+        <v>0.2296925342253595</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2704368545788031</v>
+        <v>0.2694451598199734</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1067</v>
@@ -3217,19 +3217,19 @@
         <v>1135854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1070167</v>
+        <v>1075775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1189395</v>
+        <v>1200732</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2809489391775644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2647015299498001</v>
+        <v>0.2660885625079106</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2941920197445922</v>
+        <v>0.2969961129543273</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1420406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1377753</v>
+        <v>1375220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1463149</v>
+        <v>1463143</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6892560582189842</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6685584410722847</v>
+        <v>0.6673297191008347</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7099971922292478</v>
+        <v>0.7099943323896195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1437</v>
@@ -3267,19 +3267,19 @@
         <v>1486661</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1446096</v>
+        <v>1448062</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1525223</v>
+        <v>1526857</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7500281667608852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7295631454211968</v>
+        <v>0.7305548401800264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7694829639391162</v>
+        <v>0.7703074657746405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2773</v>
@@ -3288,19 +3288,19 @@
         <v>2907067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2853526</v>
+        <v>2842189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2972754</v>
+        <v>2967146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7190510608224356</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7058079802554077</v>
+        <v>0.703003887045673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7352984700501999</v>
+        <v>0.7339114374920895</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>250962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226762</v>
+        <v>228744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>276013</v>
+        <v>277052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4639481757981596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4192095258300789</v>
+        <v>0.4228748303660894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.510258909349863</v>
+        <v>0.512179544420363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -3413,19 +3413,19 @@
         <v>186501</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164533</v>
+        <v>165397</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>210383</v>
+        <v>211159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3422996718730166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3019791103176523</v>
+        <v>0.3035648922997587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3861309282474221</v>
+        <v>0.3875562000962258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>409</v>
@@ -3434,19 +3434,19 @@
         <v>437463</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>405626</v>
+        <v>406887</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>471136</v>
+        <v>474768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4029042755106835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3735821925892896</v>
+        <v>0.3747430324545373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4339163594152012</v>
+        <v>0.4372615118558836</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>289965</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>264914</v>
+        <v>263875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314165</v>
+        <v>312183</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5360518242018404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.489741090650137</v>
+        <v>0.4878204555796369</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.580790474169921</v>
+        <v>0.5771251696339106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -3484,19 +3484,19 @@
         <v>358347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>334465</v>
+        <v>333689</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380315</v>
+        <v>379451</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6577003281269833</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6138690717525778</v>
+        <v>0.6124437999037742</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6980208896823475</v>
+        <v>0.6964351077002413</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -3505,19 +3505,19 @@
         <v>648312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>614639</v>
+        <v>611007</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680149</v>
+        <v>678888</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5970957244893166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5660836405847988</v>
+        <v>0.5627384881441163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6264178074107104</v>
+        <v>0.6252569675454626</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1230990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1175749</v>
+        <v>1173424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1283269</v>
+        <v>1287059</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3671958196323027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.350717778936564</v>
+        <v>0.3500241595925053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3827901715700577</v>
+        <v>0.3839208672074937</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>997</v>
@@ -3630,19 +3630,19 @@
         <v>1101698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1042389</v>
+        <v>1048882</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1164228</v>
+        <v>1156967</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3133176587339411</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2964505130001289</v>
+        <v>0.2982972778220486</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3311009519734109</v>
+        <v>0.3290361185648523</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2183</v>
@@ -3651,19 +3651,19 @@
         <v>2332688</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2253882</v>
+        <v>2255674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2415028</v>
+        <v>2420773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3396142163988001</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3281409020754722</v>
+        <v>0.3284017874410387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.351602006276846</v>
+        <v>0.3524385242399465</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2121418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2069139</v>
+        <v>2065349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2176659</v>
+        <v>2178984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6328041803676973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6172098284299425</v>
+        <v>0.6160791327925061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6492822210634359</v>
+        <v>0.6499758404074946</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2314</v>
@@ -3701,19 +3701,19 @@
         <v>2414534</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2352004</v>
+        <v>2359265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2473843</v>
+        <v>2467350</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6866823412660589</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6688990480265896</v>
+        <v>0.6709638814351477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7035494869998713</v>
+        <v>0.7017027221779514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4320</v>
@@ -3722,19 +3722,19 @@
         <v>4535952</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4453612</v>
+        <v>4447867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4614758</v>
+        <v>4612966</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6603857836011999</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6483979937231541</v>
+        <v>0.6475614757600534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6718590979245278</v>
+        <v>0.6715982125589615</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>234838</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>212005</v>
+        <v>214527</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>257878</v>
+        <v>258501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4084785420957667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3687619236610009</v>
+        <v>0.3731490740024334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4485530537343345</v>
+        <v>0.4496373472804604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>721</v>
@@ -4086,19 +4086,19 @@
         <v>400457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>378795</v>
+        <v>377015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421552</v>
+        <v>423481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4913418199162239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.46476276105395</v>
+        <v>0.4625788631411392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5172233457461805</v>
+        <v>0.5195908209686598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1030</v>
@@ -4107,19 +4107,19 @@
         <v>635296</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>603846</v>
+        <v>603389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666719</v>
+        <v>667209</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4570676566033662</v>
+        <v>0.4570676566033661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4344412555643953</v>
+        <v>0.4341121838394157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4796755061165839</v>
+        <v>0.4800278314077352</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>340072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>317032</v>
+        <v>316409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362905</v>
+        <v>360383</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5915214579042333</v>
+        <v>0.5915214579042332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5514469462656655</v>
+        <v>0.5503626527195397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6312380763389991</v>
+        <v>0.6268509259975666</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>696</v>
@@ -4157,19 +4157,19 @@
         <v>414571</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>393476</v>
+        <v>391547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>436233</v>
+        <v>438013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5086581800837762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4827766542538195</v>
+        <v>0.4804091790313401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5352372389460499</v>
+        <v>0.5374211368588608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1075</v>
@@ -4178,19 +4178,19 @@
         <v>754642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723219</v>
+        <v>722729</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>786092</v>
+        <v>786549</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5429323433966338</v>
+        <v>0.5429323433966337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5203244938834162</v>
+        <v>0.5199721685922648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5655587444356048</v>
+        <v>0.5658878161605844</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>653828</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>607191</v>
+        <v>606393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>703709</v>
+        <v>707913</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2960042591285043</v>
+        <v>0.2960042591285044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2748906506891985</v>
+        <v>0.2745294769806725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3185865598873517</v>
+        <v>0.3204897915717935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>717</v>
@@ -4303,19 +4303,19 @@
         <v>560355</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>518632</v>
+        <v>525088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>598675</v>
+        <v>602335</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2594583991658182</v>
+        <v>0.2594583991658181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2401393179011483</v>
+        <v>0.2431287523234549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2772012525945747</v>
+        <v>0.2788962800248492</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1321</v>
@@ -4324,19 +4324,19 @@
         <v>1214183</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1155524</v>
+        <v>1152798</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1284417</v>
+        <v>1273365</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2779368525730022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2645092827094608</v>
+        <v>0.2638854746586681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2940139892804077</v>
+        <v>0.2914841629590437</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1555018</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1505137</v>
+        <v>1500933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1601655</v>
+        <v>1602453</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7039957408714955</v>
+        <v>0.7039957408714956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6814134401126479</v>
+        <v>0.6795102084282064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7251093493108014</v>
+        <v>0.7254705230193277</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2191</v>
@@ -4374,19 +4374,19 @@
         <v>1599356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1561036</v>
+        <v>1557376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1641079</v>
+        <v>1634623</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7405416008341819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.722798747405425</v>
+        <v>0.7211037199751511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7598606820988517</v>
+        <v>0.7568712476765452</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3567</v>
@@ -4395,19 +4395,19 @@
         <v>3154373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3084139</v>
+        <v>3095191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3213032</v>
+        <v>3215758</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7220631474269978</v>
+        <v>0.7220631474269977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7059860107195923</v>
+        <v>0.7085158370409566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7354907172905387</v>
+        <v>0.7361145253413321</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>351445</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>323354</v>
+        <v>319734</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>379524</v>
+        <v>380693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4979049391625031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4581083168314777</v>
+        <v>0.4529795784268097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5376861948913313</v>
+        <v>0.5393418539184459</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -4520,19 +4520,19 @@
         <v>317075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>293282</v>
+        <v>293820</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>342419</v>
+        <v>339661</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4329492127862121</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4004607616224238</v>
+        <v>0.4011953559260519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4675542664656668</v>
+        <v>0.4637884204508452</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>748</v>
@@ -4541,19 +4541,19 @@
         <v>668520</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>630579</v>
+        <v>631927</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>705152</v>
+        <v>704943</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.464828318452003</v>
+        <v>0.4648283184520029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4384477140191269</v>
+        <v>0.4393850582487013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4902987827852932</v>
+        <v>0.4901538703849218</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>354402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326323</v>
+        <v>325154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>382493</v>
+        <v>386113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5020950608374969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4623138051086685</v>
+        <v>0.460658146081554</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5418916831685223</v>
+        <v>0.5470204215731902</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>585</v>
@@ -4591,19 +4591,19 @@
         <v>415286</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>389942</v>
+        <v>392700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>439079</v>
+        <v>438541</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5670507872137879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5324457335343332</v>
+        <v>0.5362115795491548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5995392383775762</v>
+        <v>0.5988046440739481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>931</v>
@@ -4612,19 +4612,19 @@
         <v>769688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>733056</v>
+        <v>733265</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>807629</v>
+        <v>806281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5351716815479971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5097012172147067</v>
+        <v>0.5098461296150782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.561552285980873</v>
+        <v>0.5606149417512987</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1240111</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1176894</v>
+        <v>1177298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1298887</v>
+        <v>1303993</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3553730734498425</v>
+        <v>0.3553730734498426</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3372573296937155</v>
+        <v>0.3373729338210539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3722161335985837</v>
+        <v>0.3736794038660938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1854</v>
@@ -4737,19 +4737,19 @@
         <v>1277888</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1224391</v>
+        <v>1228217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1330074</v>
+        <v>1335246</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3447135547112372</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3302827626022817</v>
+        <v>0.3313147265741095</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3587909203307052</v>
+        <v>0.3601862636341497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3099</v>
@@ -4758,19 +4758,19 @@
         <v>2517999</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2434963</v>
+        <v>2430686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2596807</v>
+        <v>2595054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3498822395696903</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3383442213972522</v>
+        <v>0.3377499995481182</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3608328417357373</v>
+        <v>0.3605892859003176</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2249492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2190716</v>
+        <v>2185610</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2312709</v>
+        <v>2312305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6446269265501573</v>
+        <v>0.6446269265501574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6277838664014161</v>
+        <v>0.626320596133906</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6627426703062844</v>
+        <v>0.6626270661789461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3472</v>
@@ -4808,19 +4808,19 @@
         <v>2429212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2377026</v>
+        <v>2371854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2482709</v>
+        <v>2478883</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6552864452887628</v>
+        <v>0.6552864452887627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6412090796692949</v>
+        <v>0.6398137363658504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6697172373977184</v>
+        <v>0.6686852734258902</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5573</v>
@@ -4829,19 +4829,19 @@
         <v>4678704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4599896</v>
+        <v>4601649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4761740</v>
+        <v>4766017</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6501177604303094</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6391671582642625</v>
+        <v>0.6394107140996825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6616557786027476</v>
+        <v>0.662250000451882</v>
       </c>
     </row>
     <row r="15">
